--- a/biology/Zoologie/As_Aventuras_de_Gui_&_Estopa/As_Aventuras_de_Gui_&_Estopa.xlsx
+++ b/biology/Zoologie/As_Aventuras_de_Gui_&_Estopa/As_Aventuras_de_Gui_&_Estopa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>As_Aventuras_de_Gui_%26_Estopa</t>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As Aventuras de Gui &amp; Estopa est une série télévisée d'animation brésilienne créée par Mariana Caltabiano pour Cartoon Network. La série est produite par Mariana Caltabiano Produções. Il a été créé pour la première fois sur Cartoon Network au Brésil le 2009[1] et sur TV Cultura le 2012.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As Aventuras de Gui &amp; Estopa est une série télévisée d'animation brésilienne créée par Mariana Caltabiano pour Cartoon Network. La série est produite par Mariana Caltabiano Produções. Il a été créé pour la première fois sur Cartoon Network au Brésil le 2009 et sur TV Cultura le 2012.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>As_Aventuras_de_Gui_%26_Estopa</t>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série raconte les mésaventures d'un westie nommé Gui « Iguinho », un chien graisse nommé Estopa et de ses amis.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>As_Aventuras_de_Gui_%26_Estopa</t>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : As Aventuras de Gui &amp; Estopa
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>As_Aventuras_de_Gui_%26_Estopa</t>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mariana Caltabiano : Gui "Iguinho" / Cróquete Spaniel / Dona Iguilda / Fifivelinha / Róquete Spaniel
 Eduardo Jardim : Estopa / Pitiburro
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>As_Aventuras_de_Gui_%26_Estopa</t>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saison 1
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Dog's In Concert
 Férias Frustradas
 O Natal de Gui e Estopa
@@ -647,7 +671,43 @@
 A Luva De Três Listras
 Maiô de Bolinhas
 Cabeleireiro
-Saison 2
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/As_Aventuras_de_Gui_%26_Estopa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tubarão
 Aquário Natural
 Tartaruga
@@ -659,7 +719,43 @@
 Capivara
 Cidade de Arrecife
 Polvo
-Saison 3
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/As_Aventuras_de_Gui_%26_Estopa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Birdy
 As Mentiras que os Adultos Contam
 Queridinha
@@ -686,7 +782,43 @@
 Mãe Maneira
 Biscoito da Sorte
 O Vampiro
-Saison 4
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/As_Aventuras_de_Gui_%26_Estopa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saison 4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clubinho
 Bisa
 Cubo Mágico
@@ -699,7 +831,43 @@
 Blog da Róquete
 Piolho
 Comgás Natural
-Saison 5
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>As_Aventuras_de_Gui_&amp;_Estopa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/As_Aventuras_de_Gui_%26_Estopa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison 5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 O Presente da Róquete
 Jogadores de Futebol
 A Máquina de Algodão Doce
